--- a/P0057/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0057/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0057\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D1606-F575-4AEA-8134-9A6CC476C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{505D1606-F575-4AEA-8134-9A6CC476C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F772F8F7-A0FF-4199-924F-7A36C3489024}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,70 +90,13 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>P0057</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>Capas</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Capas</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>La carpeta presenta una gdb de información de la Mojana y un polígono de la región</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>La carpeta presenta una gdb con capas cartográficas de amenaza de inundación, profundidades para un periodo de retorno de 100 años para Magangué y San Marcos y una mancha de inundación de 2021 de la Mojana</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>La carpeta no presenta un contexto de los datos, no se conoce el año real de la mancha de inundación, si esta fue obtenida por un modelo hidrodinámico (no se conocen caudales) o por imágenes satelitales. El componente de toma de decisiones debe ser cuidadoso con esta información debido a su falta de contexto.</t>
-  </si>
-  <si>
-    <t>Periodo de retorno, Magangué, San Marcos, Mancha de inundación</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>Salidas cartográficas</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0057/02_PRODUCTOS/Salidas cartográficas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La carpeta presenta mapas descriptivos </t>
-  </si>
-  <si>
-    <t>La carpeta presenta 3 mapas, Ecorregiones PND a nivel nacional, un mapa de la Mojana y un Mapa de otros territorios a nivel nacional</t>
-  </si>
-  <si>
-    <t>Ecorregiones PND, mapas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -600,15 +543,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -616,6 +550,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -635,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R3" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -651,9 +594,9 @@
     <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -923,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -946,7 +889,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,157 +945,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>30</v>
-      </c>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6"/>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1164,6 +995,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1307,37 +1147,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>